--- a/doc/组态界面设计器.xlsx
+++ b/doc/组态界面设计器.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="0" windowWidth="23200" windowHeight="14060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="23200" windowHeight="14060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="配置文件" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="116">
   <si>
     <t>一、目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,130 +75,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceSn</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmdNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if type=cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if type=dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;,=,&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd/dat/img/txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> $me, $deviceSn.sensorNo.field,常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceSnList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceSn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示值模式 如：1:开，0:关，没有匹配到则显示原始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"seq":"1","projectId":"1","title":"云南滴灌A区","deviceSnList":{"3DF5C433":{"id":"68","name":"平湖水稻-电动阀","status":"on"},"7835DA60":{"id":"71","name":"平湖水稻-水位计","status":"off"}},"cover":[{"seq":"1","deviceSn":"3DF5C433","sensorNo":"11","field":"sw","name":"电动阀(11)","valuePtn":{"0":"关","1":"开"},"data":{"name":"阀门状态","val":"开","unit":" ","color":"black","agoTime":"(2天前)"}},{"seq":"2","deviceSn":"3DF5C433","sensorNo":"21","field":"sw","name":"电动阀(21)","valuePtn":{"0":"关","1":"开"},"data":{"name":"阀门状态","val":"开","unit":" ","color":"black","agoTime":"(2天前)"}},{"seq":"3","deviceSn":"7835DA60","sensorNo":"32","field":"h","name":"水位(32)","valuePtn":{},"data":{"name":"水层","val":"10","unit":"毫米","color":"black","agoTime":"(2天前)"}},{"seq":"4","deviceSn":"7835DA60","sensorNo":"22","field":"h","name":"水位(22)","valuePtn":{},"data":{"name":"水层","val":"391","unit":"毫米","color":"black","agoTime":"(2天前)"}}]},{"seq":"2","projectId":"2","title":"云南滴灌B区","deviceSnList":{"3DF5C433":{"id":"68","name":"平湖水稻-电动阀","status":"on"},"7835DA60":{"id":"71","name":"平湖水稻-水位计","status":"off"}},"cover":[{"seq":"1","deviceSn":"3DF5C433","sensorNo":"11","field":"sw","name":"电动阀(11)","valuePtn":{"0":"关","1":"开"},"data":{"name":"阀门状态","val":"开","unit":" ","color":"black","agoTime":"(2天前)"}},{"seq":"2","deviceSn":"3DF5C433","sensorNo":"21","field":"sw","name":"电动阀(21)","valuePtn":{"0":"关","1":"开"},"data":{"name":"阀门状态","val":"开","unit":" ","color":"black","agoTime":"(2天前)"}},{"seq":"3","deviceSn":"7835DA60","sensorNo":"32","field":"h","name":"水位(32)","valuePtn":{},"data":{"name":"水层","val":"10","unit":"毫米","color":"black","agoTime":"(2天前)"}},{"seq":"4","deviceSn":"7835DA60","sensorNo":"22","field":"h","name":"水位(22)","valuePtn":{},"data":{"name":"水层","val":"391","unit":"毫米","color":"black","agoTime":"(2天前)"}}]}]</t>
+  </si>
+  <si>
+    <t>[{</t>
+  </si>
+  <si>
+    <t>cover: [{</t>
+  </si>
+  <si>
+    <t>seq: "1",</t>
+  </si>
+  <si>
+    <t>deviceSn: "3DF5C433",</t>
+  </si>
+  <si>
+    <t>sensorNo: "11",</t>
+  </si>
+  <si>
+    <t>field: "sw",</t>
+  </si>
+  <si>
+    <t>name: "电动阀(11)",</t>
+  </si>
+  <si>
+    <t>valuePtn: {</t>
+  </si>
+  <si>
+    <t>0: "关",</t>
+  </si>
+  <si>
+    <t>1: "开"</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>data: {</t>
+  </si>
+  <si>
+    <t>name: "阀门状态",</t>
+  </si>
+  <si>
+    <t>val: "开",</t>
+  </si>
+  <si>
+    <t>unit: " ",</t>
+  </si>
+  <si>
+    <t>color: "black",</t>
+  </si>
+  <si>
+    <t>agoTime: "(2天前)"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>}, {</t>
+  </si>
+  <si>
+    <t>seq: "2",</t>
+  </si>
+  <si>
+    <t>sensorNo: "21",</t>
+  </si>
+  <si>
+    <t>name: "电动阀(21)",</t>
+  </si>
+  <si>
+    <t>seq: "3",</t>
+  </si>
+  <si>
+    <t>deviceSn: "7835DA60",</t>
+  </si>
+  <si>
+    <t>sensorNo: "12",</t>
+  </si>
+  <si>
+    <t>field: "h",</t>
+  </si>
+  <si>
+    <t>name: "水位(12)",</t>
+  </si>
+  <si>
+    <t>valuePtn: {}</t>
+  </si>
+  <si>
+    <t>seq: "4",</t>
+  </si>
+  <si>
+    <t>sensorNo: "22",</t>
+  </si>
+  <si>
+    <t>name: "水位(22)",</t>
+  </si>
+  <si>
+    <t>valuePtn: {},</t>
+  </si>
+  <si>
+    <t>name: "水层",</t>
+  </si>
+  <si>
+    <t>val: "391",</t>
+  </si>
+  <si>
+    <t>unit: "毫米",</t>
+  </si>
+  <si>
+    <t>}],</t>
+  </si>
+  <si>
+    <t>deviceSnList: {</t>
+  </si>
+  <si>
+    <t>3DF5C433: {</t>
+  </si>
+  <si>
+    <t>name: "平湖水稻-电动阀",</t>
+  </si>
+  <si>
+    <t>id: "68"</t>
+  </si>
+  <si>
+    <t>7835DA60: {</t>
+  </si>
+  <si>
+    <t>name: "平湖水稻-水位计",</t>
+  </si>
+  <si>
+    <t>id: "71"</t>
+  </si>
+  <si>
+    <t>title: "云南滴灌B区",</t>
+  </si>
+  <si>
+    <t>projectId: "2",</t>
+  </si>
+  <si>
+    <t>seq: "1"</t>
+  </si>
+  <si>
+    <t>seq: "2"</t>
+  </si>
+  <si>
+    <t>seq: "3"</t>
+  </si>
+  <si>
+    <t>title: "云南滴灌A区",</t>
+  </si>
+  <si>
+    <t>projectId: "1",</t>
+  </si>
+  <si>
+    <t>}]</t>
+  </si>
+  <si>
+    <t>id: "68",</t>
+  </si>
+  <si>
+    <t>status: "on"</t>
+  </si>
+  <si>
+    <t>id: "71",</t>
+  </si>
+  <si>
+    <t>status: "off"</t>
+  </si>
+  <si>
+    <t>sensorNo: "32",</t>
+  </si>
+  <si>
+    <t>name: "水位(32)",</t>
+  </si>
+  <si>
+    <t>val: "10",</t>
+  </si>
+  <si>
+    <t>valuePtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceSn</t>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sensorNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmdNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if type=cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if type=dat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img/txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;,=,&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmd/dat/img/txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> $me, $deviceSn.sensorNo.field,常数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceSnList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,8 +483,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -273,22 +507,334 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="2413000"/>
+          <a:ext cx="5448300" cy="7632700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>elements: [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"type":"dat",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>"style":{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     "position": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>            "top":"10",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>             "left":"10"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  "bind":{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>       "deviceSn":"BJW401",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>       "sensorNo":"1",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>       "field":"wd"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>   }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>   "display":{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>       "type":"txt",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>       "text":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>温度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    }</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>"type":"cmd",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>"style":{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>     "position": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>            "top":"10",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>             "left":"100"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>  "bind":{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>       "deviceSn":"BJW401",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>       "sensorNo":"1",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>       "cmdNo":"1"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>   }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>   "display":{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>       "type":"txt",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>       "text":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询温度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I34"/>
+  <dimension ref="B3:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -688,186 +1234,1447 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="D9" t="s">
-        <v>26</v>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="D10" t="s">
-        <v>12</v>
+      <c r="C10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="E11" t="s">
-        <v>13</v>
+      <c r="C11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:9">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="D14" t="s">
-        <v>16</v>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="D16" t="s">
-        <v>18</v>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
+      <c r="E19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
+      <c r="E20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="E23" t="s">
-        <v>32</v>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="E24" t="s">
-        <v>33</v>
+      <c r="D24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>43</v>
+      <c r="D25" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="F26" t="s">
-        <v>36</v>
+      <c r="D26" t="s">
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="3:9">
-      <c r="F27" t="s">
-        <v>37</v>
+      <c r="D27" t="s">
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="3:9">
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="E31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="3:9">
-      <c r="F32" t="s">
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="s">
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="s">
+    <row r="38" spans="4:9">
+      <c r="E38" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K162"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="K48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11">
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11">
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11">
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11">
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="E56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="E57" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11">
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11">
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11">
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11">
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="K65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="D71" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="D72" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="D73" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="E75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="K76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="K78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="E80" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11">
+      <c r="E81" t="s">
+        <v>69</v>
+      </c>
+      <c r="J81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11">
+      <c r="E82" t="s">
+        <v>70</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11">
+      <c r="E83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11">
+      <c r="D84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11">
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11">
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+      <c r="I86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11">
+      <c r="D88" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11">
+      <c r="D89" t="s">
+        <v>76</v>
+      </c>
+      <c r="K89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11">
+      <c r="D90" t="s">
+        <v>62</v>
+      </c>
+      <c r="K90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11">
+      <c r="E91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11">
+      <c r="E92" t="s">
+        <v>64</v>
+      </c>
+      <c r="J92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11">
+      <c r="D93" t="s">
+        <v>65</v>
+      </c>
+      <c r="J93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11">
+      <c r="D94" t="s">
+        <v>101</v>
+      </c>
+      <c r="K94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11">
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="K95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11">
+      <c r="D96" t="s">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11">
+      <c r="D97" t="s">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11">
+      <c r="D98" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11">
+      <c r="D99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11">
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+      <c r="J100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11">
+      <c r="D101" t="s">
+        <v>102</v>
+      </c>
+      <c r="J101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11">
+      <c r="C102" t="s">
+        <v>73</v>
+      </c>
+      <c r="J102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11">
+      <c r="D103" t="s">
+        <v>78</v>
+      </c>
+      <c r="J103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11">
+      <c r="D105" t="s">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="D106" t="s">
+        <v>85</v>
+      </c>
+      <c r="K106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+      <c r="K107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="D108" t="s">
+        <v>83</v>
+      </c>
+      <c r="J108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="D109" t="s">
+        <v>66</v>
+      </c>
+      <c r="J109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="E110" t="s">
+        <v>87</v>
+      </c>
+      <c r="K110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11">
+      <c r="E111" t="s">
+        <v>88</v>
+      </c>
+      <c r="K111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="E112" t="s">
+        <v>89</v>
+      </c>
+      <c r="K112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11">
+      <c r="E113" t="s">
+        <v>70</v>
+      </c>
+      <c r="K113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11">
+      <c r="E114" t="s">
+        <v>71</v>
+      </c>
+      <c r="K114" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11">
+      <c r="D115" t="s">
+        <v>72</v>
+      </c>
+      <c r="J115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" t="s">
+        <v>90</v>
+      </c>
+      <c r="I116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11">
+      <c r="C117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11">
+      <c r="D118" t="s">
+        <v>92</v>
+      </c>
+      <c r="J118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="E119" t="s">
+        <v>93</v>
+      </c>
+      <c r="J119" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11">
+      <c r="E120" t="s">
+        <v>94</v>
+      </c>
+      <c r="J120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11">
+      <c r="D121" t="s">
+        <v>65</v>
+      </c>
+      <c r="J121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11">
+      <c r="D122" t="s">
+        <v>95</v>
+      </c>
+      <c r="J122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="3:11">
+      <c r="E123" t="s">
+        <v>96</v>
+      </c>
+      <c r="K123" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="3:11">
+      <c r="E124" t="s">
+        <v>97</v>
+      </c>
+      <c r="K124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="3:11">
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+      <c r="J125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11">
+      <c r="C126" t="s">
+        <v>65</v>
+      </c>
+      <c r="J126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11">
+      <c r="C127" t="s">
+        <v>103</v>
+      </c>
+      <c r="K127" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11">
+      <c r="C128" t="s">
+        <v>104</v>
+      </c>
+      <c r="K128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="C129" t="s">
+        <v>101</v>
+      </c>
+      <c r="K129" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" t="s">
+        <v>105</v>
+      </c>
+      <c r="K130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="K131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="J132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="I133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="J134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="J135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="J136" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="J137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="J138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="J139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="J140" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="K141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="K142" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="K143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="K144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="9:11">
+      <c r="K145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="9:11">
+      <c r="J146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="9:11">
+      <c r="I147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="9:11">
+      <c r="J148" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" spans="9:11">
+      <c r="J149" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="9:11">
+      <c r="J150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="9:11">
+      <c r="J151" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="152" spans="9:11">
+      <c r="J152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="9:11">
+      <c r="J153" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="9:11">
+      <c r="J154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="9:11">
+      <c r="K155" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="156" spans="9:11">
+      <c r="K156" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="157" spans="9:11">
+      <c r="K157" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="158" spans="9:11">
+      <c r="K158" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="9:11">
+      <c r="K159" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="9:11">
+      <c r="J160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9">
+      <c r="I161" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9">
+      <c r="H162" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
